--- a/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties_EffectAbility.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties_EffectAbility.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FED933-0628-41F0-97A6-2B23A87FDA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C7AF12-9CE4-443D-B923-D317F64ED1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="10" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
+    <workbookView xWindow="10070" yWindow="5780" windowWidth="24900" windowHeight="11860" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
   </bookViews>
   <sheets>
-    <sheet name="AbilityResourceInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="AreaAimedStatusAbility" sheetId="1" r:id="rId1"/>
     <sheet name="AreaCastAbility" sheetId="2" r:id="rId2"/>
     <sheet name="AreaDurationAbility" sheetId="3" r:id="rId3"/>
     <sheet name="AreaMotivatedAbility" sheetId="4" r:id="rId4"/>
@@ -454,18 +454,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87DE3FA-4876-4964-9707-AB4C26E74BFB}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -496,169 +498,148 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="I29:K29"/>
@@ -667,6 +648,27 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -679,9 +681,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -712,168 +714,148 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
@@ -883,6 +865,26 @@
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -893,15 +895,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA2C332-826D-4BD9-A029-FA9CA2CE9A0B}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -932,168 +934,148 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
@@ -1103,6 +1085,26 @@
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1115,9 +1117,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1148,168 +1150,148 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
@@ -1319,6 +1301,26 @@
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1331,9 +1333,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1364,169 +1366,148 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="I29:K29"/>
@@ -1535,6 +1516,27 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1547,9 +1549,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1580,168 +1582,148 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
@@ -1751,6 +1733,26 @@
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1763,13 +1765,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1800,148 +1802,169 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I8:K8"/>
@@ -1950,27 +1973,6 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1983,14 +1985,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2021,169 +2023,148 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="I29:K29"/>
@@ -2192,6 +2173,27 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,12 +2206,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2240,169 +2242,148 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="I29:K29"/>
@@ -2411,6 +2392,27 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2425,13 +2427,13 @@
       <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2462,169 +2464,148 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="I29:K29"/>
@@ -2633,6 +2614,27 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2645,9 +2647,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2678,148 +2680,165 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I2:K2"/>
@@ -2832,23 +2851,6 @@
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties_EffectAbility.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/CombineAbilities/CombineAbililties_EffectAbility.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\CombineAbilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C7AF12-9CE4-443D-B923-D317F64ED1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AF3B7D-2F14-4C7C-9E3E-80703E551389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10070" yWindow="5780" windowWidth="24900" windowHeight="11860" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
+    <workbookView xWindow="-28920" yWindow="2715" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="9" xr2:uid="{D49C7B43-6E4D-49C2-B7A8-3A3FDB66E59A}"/>
   </bookViews>
   <sheets>
     <sheet name="AreaAimedStatusAbility" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="11">
   <si>
     <t>EffectName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataUnitType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,22 +456,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87DE3FA-4876-4964-9707-AB4C26E74BFB}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -483,192 +488,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -677,13 +685,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA059A84-6AF1-4A91-9346-3006E82BB928}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:L17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -699,192 +709,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -893,17 +906,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA2C332-826D-4BD9-A029-FA9CA2CE9A0B}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -919,192 +935,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1113,13 +1132,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21317FA8-C659-4D72-B8CB-BBB9CF94B478}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1135,192 +1156,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1329,13 +1353,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753C946F-CA7B-4ADB-A430-2983A8CCED9D}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1351,192 +1377,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1545,13 +1574,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F5BC70-149D-4DE7-ACDA-32783B69FAC3}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1567,192 +1598,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1761,17 +1795,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE008D25-21B1-4399-9DDF-05EBF0697AC6}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1787,192 +1824,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1981,18 +2021,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E388512-17CA-4304-8309-1E174BF80D2E}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2008,192 +2051,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2202,16 +2248,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFC4A18-D949-48E2-9724-68D518466AAC}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2227,192 +2275,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2421,19 +2472,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01E105B-6EE5-4C98-B430-04EA4FDF2FE5}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2449,192 +2500,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2643,13 +2697,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528C82EB-5B3E-46AB-B0D9-32EA0E303A53}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2665,192 +2721,195 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I2" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I3" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I4" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I5" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I6" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I7" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I8" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I9" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I10" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I11" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I12" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I13" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I14" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I15" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
